--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Igf1-Igf1r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Igf1-Igf1r.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.1868345</v>
+        <v>2.0922685</v>
       </c>
       <c r="H2">
-        <v>34.373669</v>
+        <v>4.184537</v>
       </c>
       <c r="I2">
-        <v>0.127281611696507</v>
+        <v>0.026897909551136</v>
       </c>
       <c r="J2">
-        <v>0.09011043807170635</v>
+        <v>0.01819462836446825</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.541773</v>
+        <v>17.002896</v>
       </c>
       <c r="N2">
-        <v>23.083546</v>
+        <v>34.005792</v>
       </c>
       <c r="O2">
-        <v>0.2250656192673999</v>
+        <v>0.2016481661015148</v>
       </c>
       <c r="P2">
-        <v>0.1829004464319742</v>
+        <v>0.1508855102621455</v>
       </c>
       <c r="Q2">
-        <v>198.3665423875685</v>
+        <v>35.574623709576</v>
       </c>
       <c r="R2">
-        <v>793.4661695502739</v>
+        <v>142.298494838304</v>
       </c>
       <c r="S2">
-        <v>0.02864671475782709</v>
+        <v>0.005423914132950993</v>
       </c>
       <c r="T2">
-        <v>0.01648123935149586</v>
+        <v>0.002745305784802897</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.1868345</v>
+        <v>2.0922685</v>
       </c>
       <c r="H3">
-        <v>34.373669</v>
+        <v>4.184537</v>
       </c>
       <c r="I3">
-        <v>0.127281611696507</v>
+        <v>0.026897909551136</v>
       </c>
       <c r="J3">
-        <v>0.09011043807170635</v>
+        <v>0.01819462836446825</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>26.479315</v>
       </c>
       <c r="O3">
-        <v>0.1721163472386074</v>
+        <v>0.1046783502719053</v>
       </c>
       <c r="P3">
-        <v>0.20980652343071</v>
+        <v>0.1174901309508416</v>
       </c>
       <c r="Q3">
-        <v>151.6985348594558</v>
+        <v>18.46727889202583</v>
       </c>
       <c r="R3">
-        <v>910.191209156735</v>
+        <v>110.803673352155</v>
       </c>
       <c r="S3">
-        <v>0.0219072460758456</v>
+        <v>0.002815628797575841</v>
       </c>
       <c r="T3">
-        <v>0.018905757736643</v>
+        <v>0.002137689269143272</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.1868345</v>
+        <v>2.0922685</v>
       </c>
       <c r="H4">
-        <v>34.373669</v>
+        <v>4.184537</v>
       </c>
       <c r="I4">
-        <v>0.127281611696507</v>
+        <v>0.026897909551136</v>
       </c>
       <c r="J4">
-        <v>0.09011043807170635</v>
+        <v>0.01819462836446825</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.407739666666667</v>
+        <v>3.388572</v>
       </c>
       <c r="N4">
-        <v>10.223219</v>
+        <v>10.165716</v>
       </c>
       <c r="O4">
-        <v>0.06645123226565072</v>
+        <v>0.04018723219285363</v>
       </c>
       <c r="P4">
-        <v>0.0810027765695895</v>
+        <v>0.04510582332092299</v>
       </c>
       <c r="Q4">
-        <v>58.56825767008517</v>
+        <v>7.089802455581999</v>
       </c>
       <c r="R4">
-        <v>351.409546020511</v>
+        <v>42.538814733492</v>
       </c>
       <c r="S4">
-        <v>0.008458019941990955</v>
+        <v>0.001080952536633878</v>
       </c>
       <c r="T4">
-        <v>0.007299195681710261</v>
+        <v>0.0008206836923975588</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.1868345</v>
+        <v>2.0922685</v>
       </c>
       <c r="H5">
-        <v>34.373669</v>
+        <v>4.184537</v>
       </c>
       <c r="I5">
-        <v>0.127281611696507</v>
+        <v>0.026897909551136</v>
       </c>
       <c r="J5">
-        <v>0.09011043807170635</v>
+        <v>0.01819462836446825</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.095412</v>
+        <v>10.581151</v>
       </c>
       <c r="N5">
-        <v>32.19082400000001</v>
+        <v>21.162302</v>
       </c>
       <c r="O5">
-        <v>0.3138619923597475</v>
+        <v>0.1254886046702403</v>
       </c>
       <c r="P5">
-        <v>0.2550611626399649</v>
+        <v>0.09389826108421828</v>
       </c>
       <c r="Q5">
-        <v>276.6291822533141</v>
+        <v>22.1386089310435</v>
       </c>
       <c r="R5">
-        <v>1106.516729013256</v>
+        <v>88.554435724174</v>
       </c>
       <c r="S5">
-        <v>0.03994886023782544</v>
+        <v>0.003375381138118385</v>
       </c>
       <c r="T5">
-        <v>0.02298367310056598</v>
+        <v>0.001708443964497163</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.1868345</v>
+        <v>2.0922685</v>
       </c>
       <c r="H6">
-        <v>34.373669</v>
+        <v>4.184537</v>
       </c>
       <c r="I6">
-        <v>0.127281611696507</v>
+        <v>0.026897909551136</v>
       </c>
       <c r="J6">
-        <v>0.09011043807170635</v>
+        <v>0.01819462836446825</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.935845</v>
+        <v>41.965716</v>
       </c>
       <c r="N6">
-        <v>26.807535</v>
+        <v>125.897148</v>
       </c>
       <c r="O6">
-        <v>0.174249787151636</v>
+        <v>0.4976981374547604</v>
       </c>
       <c r="P6">
-        <v>0.2124071457323227</v>
+        <v>0.5586123509938791</v>
       </c>
       <c r="Q6">
-        <v>153.5788891326525</v>
+        <v>87.80354566674599</v>
       </c>
       <c r="R6">
-        <v>921.4733347959151</v>
+        <v>526.821274000476</v>
       </c>
       <c r="S6">
-        <v>0.02217879374643354</v>
+        <v>0.013387039485027</v>
       </c>
       <c r="T6">
-        <v>0.01914010095150037</v>
+        <v>0.01016374412613552</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.1868345</v>
+        <v>2.0922685</v>
       </c>
       <c r="H7">
-        <v>34.373669</v>
+        <v>4.184537</v>
       </c>
       <c r="I7">
-        <v>0.127281611696507</v>
+        <v>0.026897909551136</v>
       </c>
       <c r="J7">
-        <v>0.09011043807170635</v>
+        <v>0.01819462836446825</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.474605</v>
+        <v>2.554843</v>
       </c>
       <c r="N7">
-        <v>7.423815</v>
+        <v>7.664529</v>
       </c>
       <c r="O7">
-        <v>0.0482550217169584</v>
+        <v>0.03029950930872554</v>
       </c>
       <c r="P7">
-        <v>0.05882194519543864</v>
+        <v>0.03400792338799259</v>
       </c>
       <c r="Q7">
-        <v>42.5306265878725</v>
+        <v>5.345417531345499</v>
       </c>
       <c r="R7">
-        <v>255.183759527235</v>
+        <v>32.07250518807299</v>
       </c>
       <c r="S7">
-        <v>0.006141976936584414</v>
+        <v>0.0008149934608299031</v>
       </c>
       <c r="T7">
-        <v>0.005300471249790878</v>
+        <v>0.0006187615274918331</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>88.63521599999999</v>
       </c>
       <c r="I8">
-        <v>0.2188037815718387</v>
+        <v>0.3798272900145467</v>
       </c>
       <c r="J8">
-        <v>0.2323568700897281</v>
+        <v>0.3853914579138313</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.541773</v>
+        <v>17.002896</v>
       </c>
       <c r="N8">
-        <v>23.083546</v>
+        <v>34.005792</v>
       </c>
       <c r="O8">
-        <v>0.2250656192673999</v>
+        <v>0.2016481661015148</v>
       </c>
       <c r="P8">
-        <v>0.1829004464319742</v>
+        <v>0.1508855102621455</v>
       </c>
       <c r="Q8">
-        <v>341.0025142926559</v>
+        <v>502.3517865285119</v>
       </c>
       <c r="R8">
-        <v>2046.015085755936</v>
+        <v>3014.110719171072</v>
       </c>
       <c r="S8">
-        <v>0.04924520859751478</v>
+        <v>0.07659147646674154</v>
       </c>
       <c r="T8">
-        <v>0.04249817527094751</v>
+        <v>0.0581499867780006</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>88.63521599999999</v>
       </c>
       <c r="I9">
-        <v>0.2188037815718387</v>
+        <v>0.3798272900145467</v>
       </c>
       <c r="J9">
-        <v>0.2323568700897281</v>
+        <v>0.3853914579138313</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>26.479315</v>
       </c>
       <c r="O9">
-        <v>0.1721163472386074</v>
+        <v>0.1046783502719053</v>
       </c>
       <c r="P9">
-        <v>0.20980652343071</v>
+        <v>0.1174901309508416</v>
       </c>
       <c r="Q9">
         <v>260.7777560618933</v>
@@ -1013,10 +1013,10 @@
         <v>2346.99980455704</v>
       </c>
       <c r="S9">
-        <v>0.037659707646139</v>
+        <v>0.03975969410697128</v>
       </c>
       <c r="T9">
-        <v>0.04874998710876698</v>
+        <v>0.0452796928576318</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>88.63521599999999</v>
       </c>
       <c r="I10">
-        <v>0.2188037815718387</v>
+        <v>0.3798272900145467</v>
       </c>
       <c r="J10">
-        <v>0.2323568700897281</v>
+        <v>0.3853914579138313</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.407739666666667</v>
+        <v>3.388572</v>
       </c>
       <c r="N10">
-        <v>10.223219</v>
+        <v>10.165716</v>
       </c>
       <c r="O10">
-        <v>0.06645123226565072</v>
+        <v>0.04018723219285363</v>
       </c>
       <c r="P10">
-        <v>0.0810027765695895</v>
+        <v>0.04510582332092299</v>
       </c>
       <c r="Q10">
-        <v>100.6819138089226</v>
+        <v>100.115603717184</v>
       </c>
       <c r="R10">
-        <v>906.1372242803038</v>
+        <v>901.0404334546558</v>
       </c>
       <c r="S10">
-        <v>0.01453978090983296</v>
+        <v>0.01526420749699694</v>
       </c>
       <c r="T10">
-        <v>0.01882155163228738</v>
+        <v>0.0173833990100542</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>88.63521599999999</v>
       </c>
       <c r="I11">
-        <v>0.2188037815718387</v>
+        <v>0.3798272900145467</v>
       </c>
       <c r="J11">
-        <v>0.2323568700897281</v>
+        <v>0.3853914579138313</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.095412</v>
+        <v>10.581151</v>
       </c>
       <c r="N11">
-        <v>32.19082400000001</v>
+        <v>21.162302</v>
       </c>
       <c r="O11">
-        <v>0.3138619923597475</v>
+        <v>0.1254886046702403</v>
       </c>
       <c r="P11">
-        <v>0.2550611626399649</v>
+        <v>0.09389826108421828</v>
       </c>
       <c r="Q11">
-        <v>475.540106409664</v>
+        <v>312.6208681378719</v>
       </c>
       <c r="R11">
-        <v>2853.240638457984</v>
+        <v>1875.725208827232</v>
       </c>
       <c r="S11">
-        <v>0.0686741908199843</v>
+        <v>0.04766399663960415</v>
       </c>
       <c r="T11">
-        <v>0.05926521343246934</v>
+        <v>0.03618758773482045</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>88.63521599999999</v>
       </c>
       <c r="I12">
-        <v>0.2188037815718387</v>
+        <v>0.3798272900145467</v>
       </c>
       <c r="J12">
-        <v>0.2323568700897281</v>
+        <v>0.3853914579138313</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.935845</v>
+        <v>41.965716</v>
       </c>
       <c r="N12">
-        <v>26.807535</v>
+        <v>125.897148</v>
       </c>
       <c r="O12">
-        <v>0.174249787151636</v>
+        <v>0.4976981374547604</v>
       </c>
       <c r="P12">
-        <v>0.2124071457323227</v>
+        <v>0.5586123509938791</v>
       </c>
       <c r="Q12">
-        <v>264.0101839058399</v>
+        <v>1239.880100751552</v>
       </c>
       <c r="R12">
-        <v>2376.09165515256</v>
+        <v>11158.92090676397</v>
       </c>
       <c r="S12">
-        <v>0.03812651236686595</v>
+        <v>0.189039334794729</v>
       </c>
       <c r="T12">
-        <v>0.04935425956705525</v>
+        <v>0.2152844283582039</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>88.63521599999999</v>
       </c>
       <c r="I13">
-        <v>0.2188037815718387</v>
+        <v>0.3798272900145467</v>
       </c>
       <c r="J13">
-        <v>0.2323568700897281</v>
+        <v>0.3853914579138313</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.474605</v>
+        <v>2.554843</v>
       </c>
       <c r="N13">
-        <v>7.423815</v>
+        <v>7.664529</v>
       </c>
       <c r="O13">
-        <v>0.0482550217169584</v>
+        <v>0.03029950930872554</v>
       </c>
       <c r="P13">
-        <v>0.05882194519543864</v>
+        <v>0.03400792338799259</v>
       </c>
       <c r="Q13">
-        <v>73.11238289655998</v>
+        <v>75.48302038369599</v>
       </c>
       <c r="R13">
-        <v>658.0114460690399</v>
+        <v>679.3471834532639</v>
       </c>
       <c r="S13">
-        <v>0.0105583812315017</v>
+        <v>0.01150858050950376</v>
       </c>
       <c r="T13">
-        <v>0.01366768307820164</v>
+        <v>0.01310636317512034</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>37.91928366666667</v>
+        <v>7.572791666666667</v>
       </c>
       <c r="H14">
-        <v>113.757851</v>
+        <v>22.718375</v>
       </c>
       <c r="I14">
-        <v>0.2808212029661639</v>
+        <v>0.09735474452709893</v>
       </c>
       <c r="J14">
-        <v>0.2982157589201752</v>
+        <v>0.09878091415361517</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>11.541773</v>
+        <v>17.002896</v>
       </c>
       <c r="N14">
-        <v>23.083546</v>
+        <v>34.005792</v>
       </c>
       <c r="O14">
-        <v>0.2250656192673999</v>
+        <v>0.2016481661015148</v>
       </c>
       <c r="P14">
-        <v>0.1829004464319742</v>
+        <v>0.1508855102621455</v>
       </c>
       <c r="Q14">
-        <v>437.6557644032743</v>
+        <v>128.759389138</v>
       </c>
       <c r="R14">
-        <v>2625.934586419646</v>
+        <v>772.5563348280001</v>
       </c>
       <c r="S14">
-        <v>0.06320319794899587</v>
+        <v>0.01963140569517098</v>
       </c>
       <c r="T14">
-        <v>0.05454379543955003</v>
+        <v>0.01490460863622941</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>37.91928366666667</v>
+        <v>7.572791666666667</v>
       </c>
       <c r="H15">
-        <v>113.757851</v>
+        <v>22.718375</v>
       </c>
       <c r="I15">
-        <v>0.2808212029661639</v>
+        <v>0.09735474452709893</v>
       </c>
       <c r="J15">
-        <v>0.2982157589201752</v>
+        <v>0.09878091415361517</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>26.479315</v>
       </c>
       <c r="O15">
-        <v>0.1721163472386074</v>
+        <v>0.1046783502719053</v>
       </c>
       <c r="P15">
-        <v>0.20980652343071</v>
+        <v>0.1174901309508416</v>
       </c>
       <c r="Q15">
-        <v>334.6922189280072</v>
+        <v>66.8407786570139</v>
       </c>
       <c r="R15">
-        <v>3012.229970352065</v>
+        <v>601.5670079131251</v>
       </c>
       <c r="S15">
-        <v>0.04833391968168772</v>
+        <v>0.01019093404823952</v>
       </c>
       <c r="T15">
-        <v>0.06256761161129269</v>
+        <v>0.01160578253935209</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>37.91928366666667</v>
+        <v>7.572791666666667</v>
       </c>
       <c r="H16">
-        <v>113.757851</v>
+        <v>22.718375</v>
       </c>
       <c r="I16">
-        <v>0.2808212029661639</v>
+        <v>0.09735474452709893</v>
       </c>
       <c r="J16">
-        <v>0.2982157589201752</v>
+        <v>0.09878091415361517</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.407739666666667</v>
+        <v>3.388572</v>
       </c>
       <c r="N16">
-        <v>10.223219</v>
+        <v>10.165716</v>
       </c>
       <c r="O16">
-        <v>0.06645123226565072</v>
+        <v>0.04018723219285363</v>
       </c>
       <c r="P16">
-        <v>0.0810027765695895</v>
+        <v>0.04510582332092299</v>
       </c>
       <c r="Q16">
-        <v>129.2190470824854</v>
+        <v>25.6609498035</v>
       </c>
       <c r="R16">
-        <v>1162.971423742369</v>
+        <v>230.9485482315</v>
       </c>
       <c r="S16">
-        <v>0.018660914983424</v>
+        <v>0.00391241772338647</v>
       </c>
       <c r="T16">
-        <v>0.02415630448934152</v>
+        <v>0.004455594461292227</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>37.91928366666667</v>
+        <v>7.572791666666667</v>
       </c>
       <c r="H17">
-        <v>113.757851</v>
+        <v>22.718375</v>
       </c>
       <c r="I17">
-        <v>0.2808212029661639</v>
+        <v>0.09735474452709893</v>
       </c>
       <c r="J17">
-        <v>0.2982157589201752</v>
+        <v>0.09878091415361517</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.095412</v>
+        <v>10.581151</v>
       </c>
       <c r="N17">
-        <v>32.19082400000001</v>
+        <v>21.162302</v>
       </c>
       <c r="O17">
-        <v>0.3138619923597475</v>
+        <v>0.1254886046702403</v>
       </c>
       <c r="P17">
-        <v>0.2550611626399649</v>
+        <v>0.09389826108421828</v>
       </c>
       <c r="Q17">
-        <v>610.3264933598707</v>
+        <v>80.12885211654168</v>
       </c>
       <c r="R17">
-        <v>3661.958960159225</v>
+        <v>480.77311269925</v>
       </c>
       <c r="S17">
-        <v>0.08813910225982123</v>
+        <v>0.01221691104873335</v>
       </c>
       <c r="T17">
-        <v>0.07606325818773936</v>
+        <v>0.009275356067333911</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>37.91928366666667</v>
+        <v>7.572791666666667</v>
       </c>
       <c r="H18">
-        <v>113.757851</v>
+        <v>22.718375</v>
       </c>
       <c r="I18">
-        <v>0.2808212029661639</v>
+        <v>0.09735474452709893</v>
       </c>
       <c r="J18">
-        <v>0.2982157589201752</v>
+        <v>0.09878091415361517</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.935845</v>
+        <v>41.965716</v>
       </c>
       <c r="N18">
-        <v>26.807535</v>
+        <v>125.897148</v>
       </c>
       <c r="O18">
-        <v>0.174249787151636</v>
+        <v>0.4976981374547604</v>
       </c>
       <c r="P18">
-        <v>0.2124071457323227</v>
+        <v>0.5586123509938791</v>
       </c>
       <c r="Q18">
-        <v>338.840841356365</v>
+        <v>317.7976244105</v>
       </c>
       <c r="R18">
-        <v>3049.567572207285</v>
+        <v>2860.1786196945</v>
       </c>
       <c r="S18">
-        <v>0.04893303484452043</v>
+        <v>0.04845327502352117</v>
       </c>
       <c r="T18">
-        <v>0.06334315816463286</v>
+        <v>0.05518023868867552</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>37.91928366666667</v>
+        <v>7.572791666666667</v>
       </c>
       <c r="H19">
-        <v>113.757851</v>
+        <v>22.718375</v>
       </c>
       <c r="I19">
-        <v>0.2808212029661639</v>
+        <v>0.09735474452709893</v>
       </c>
       <c r="J19">
-        <v>0.2982157589201752</v>
+        <v>0.09878091415361517</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.474605</v>
+        <v>2.554843</v>
       </c>
       <c r="N19">
-        <v>7.423815</v>
+        <v>7.664529</v>
       </c>
       <c r="O19">
-        <v>0.0482550217169584</v>
+        <v>0.03029950930872554</v>
       </c>
       <c r="P19">
-        <v>0.05882194519543864</v>
+        <v>0.03400792338799259</v>
       </c>
       <c r="Q19">
-        <v>93.83524895795166</v>
+        <v>19.34729378004167</v>
       </c>
       <c r="R19">
-        <v>844.5172406215651</v>
+        <v>174.125644020375</v>
       </c>
       <c r="S19">
-        <v>0.01355103324771462</v>
+        <v>0.002949800988047431</v>
       </c>
       <c r="T19">
-        <v>0.01754163102761868</v>
+        <v>0.003359333760732018</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.4415615</v>
+        <v>1.2768655</v>
       </c>
       <c r="H20">
-        <v>12.883123</v>
+        <v>2.553731</v>
       </c>
       <c r="I20">
-        <v>0.0477046735722142</v>
+        <v>0.01641520327241272</v>
       </c>
       <c r="J20">
-        <v>0.03377305626762379</v>
+        <v>0.01110378196866747</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>11.541773</v>
+        <v>17.002896</v>
       </c>
       <c r="N20">
-        <v>23.083546</v>
+        <v>34.005792</v>
       </c>
       <c r="O20">
-        <v>0.2250656192673999</v>
+        <v>0.2016481661015148</v>
       </c>
       <c r="P20">
-        <v>0.1829004464319742</v>
+        <v>0.1508855102621455</v>
       </c>
       <c r="Q20">
-        <v>74.34704059853949</v>
+        <v>21.710411302488</v>
       </c>
       <c r="R20">
-        <v>297.388162394158</v>
+        <v>86.84164520995199</v>
       </c>
       <c r="S20">
-        <v>0.01073668189947956</v>
+        <v>0.003310095636065608</v>
       </c>
       <c r="T20">
-        <v>0.006177107068720577</v>
+        <v>0.001675399808182001</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.4415615</v>
+        <v>1.2768655</v>
       </c>
       <c r="H21">
-        <v>12.883123</v>
+        <v>2.553731</v>
       </c>
       <c r="I21">
-        <v>0.0477046735722142</v>
+        <v>0.01641520327241272</v>
       </c>
       <c r="J21">
-        <v>0.03377305626762379</v>
+        <v>0.01110378196866747</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>26.479315</v>
       </c>
       <c r="O21">
-        <v>0.1721163472386074</v>
+        <v>0.1046783502719053</v>
       </c>
       <c r="P21">
-        <v>0.20980652343071</v>
+        <v>0.1174901309508416</v>
       </c>
       <c r="Q21">
-        <v>56.85604535012417</v>
+        <v>11.27017459571083</v>
       </c>
       <c r="R21">
-        <v>341.136272100745</v>
+        <v>67.62104757426499</v>
       </c>
       <c r="S21">
-        <v>0.00821075416145964</v>
+        <v>0.001718316397934144</v>
       </c>
       <c r="T21">
-        <v>0.007085807521139898</v>
+        <v>0.001304584797548335</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.4415615</v>
+        <v>1.2768655</v>
       </c>
       <c r="H22">
-        <v>12.883123</v>
+        <v>2.553731</v>
       </c>
       <c r="I22">
-        <v>0.0477046735722142</v>
+        <v>0.01641520327241272</v>
       </c>
       <c r="J22">
-        <v>0.03377305626762379</v>
+        <v>0.01110378196866747</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.407739666666667</v>
+        <v>3.388572</v>
       </c>
       <c r="N22">
-        <v>10.223219</v>
+        <v>10.165716</v>
       </c>
       <c r="O22">
-        <v>0.06645123226565072</v>
+        <v>0.04018723219285363</v>
       </c>
       <c r="P22">
-        <v>0.0810027765695895</v>
+        <v>0.04510582332092299</v>
       </c>
       <c r="Q22">
-        <v>21.95116463882283</v>
+        <v>4.326750681066</v>
       </c>
       <c r="R22">
-        <v>131.706987832937</v>
+        <v>25.960504086396</v>
       </c>
       <c r="S22">
-        <v>0.003170034343704256</v>
+        <v>0.0006596815854013405</v>
       </c>
       <c r="T22">
-        <v>0.002735711330918504</v>
+        <v>0.0005008452276727653</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.4415615</v>
+        <v>1.2768655</v>
       </c>
       <c r="H23">
-        <v>12.883123</v>
+        <v>2.553731</v>
       </c>
       <c r="I23">
-        <v>0.0477046735722142</v>
+        <v>0.01641520327241272</v>
       </c>
       <c r="J23">
-        <v>0.03377305626762379</v>
+        <v>0.01110378196866747</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>16.095412</v>
+        <v>10.581151</v>
       </c>
       <c r="N23">
-        <v>32.19082400000001</v>
+        <v>21.162302</v>
       </c>
       <c r="O23">
-        <v>0.3138619923597475</v>
+        <v>0.1254886046702403</v>
       </c>
       <c r="P23">
-        <v>0.2550611626399649</v>
+        <v>0.09389826108421828</v>
       </c>
       <c r="Q23">
-        <v>103.679586265838</v>
+        <v>13.5107066621905</v>
       </c>
       <c r="R23">
-        <v>414.718345063352</v>
+        <v>54.042826648762</v>
       </c>
       <c r="S23">
-        <v>0.01497268389224654</v>
+        <v>0.002059920954033434</v>
       </c>
       <c r="T23">
-        <v>0.008614194997525079</v>
+        <v>0.001042625818316173</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.4415615</v>
+        <v>1.2768655</v>
       </c>
       <c r="H24">
-        <v>12.883123</v>
+        <v>2.553731</v>
       </c>
       <c r="I24">
-        <v>0.0477046735722142</v>
+        <v>0.01641520327241272</v>
       </c>
       <c r="J24">
-        <v>0.03377305626762379</v>
+        <v>0.01110378196866747</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.935845</v>
+        <v>41.965716</v>
       </c>
       <c r="N24">
-        <v>26.807535</v>
+        <v>125.897148</v>
       </c>
       <c r="O24">
-        <v>0.174249787151636</v>
+        <v>0.4976981374547604</v>
       </c>
       <c r="P24">
-        <v>0.2124071457323227</v>
+        <v>0.5586123509938791</v>
       </c>
       <c r="Q24">
-        <v>57.5607951219675</v>
+        <v>53.584574943198</v>
       </c>
       <c r="R24">
-        <v>345.364770731805</v>
+        <v>321.507449659188</v>
       </c>
       <c r="S24">
-        <v>0.0083125292160966</v>
+        <v>0.008169816094621097</v>
       </c>
       <c r="T24">
-        <v>0.007173638484463101</v>
+        <v>0.006202709750440778</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.4415615</v>
+        <v>1.2768655</v>
       </c>
       <c r="H25">
-        <v>12.883123</v>
+        <v>2.553731</v>
       </c>
       <c r="I25">
-        <v>0.0477046735722142</v>
+        <v>0.01641520327241272</v>
       </c>
       <c r="J25">
-        <v>0.03377305626762379</v>
+        <v>0.01110378196866747</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.474605</v>
+        <v>2.554843</v>
       </c>
       <c r="N25">
-        <v>7.423815</v>
+        <v>7.664529</v>
       </c>
       <c r="O25">
-        <v>0.0482550217169584</v>
+        <v>0.03029950930872554</v>
       </c>
       <c r="P25">
-        <v>0.05882194519543864</v>
+        <v>0.03400792338799259</v>
       </c>
       <c r="Q25">
-        <v>15.9403202957075</v>
+        <v>3.2621908846165</v>
       </c>
       <c r="R25">
-        <v>95.64192177424501</v>
+        <v>19.573145307699</v>
       </c>
       <c r="S25">
-        <v>0.002301990059227608</v>
+        <v>0.0004973726043570911</v>
       </c>
       <c r="T25">
-        <v>0.001986596864856632</v>
+        <v>0.0003776165665074169</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>6.007685333333334</v>
+        <v>4.552637</v>
       </c>
       <c r="H26">
-        <v>18.023056</v>
+        <v>13.657911</v>
       </c>
       <c r="I26">
-        <v>0.04449148979657271</v>
+        <v>0.05852806092772278</v>
       </c>
       <c r="J26">
-        <v>0.04724737040875374</v>
+        <v>0.05938545050025436</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>11.541773</v>
+        <v>17.002896</v>
       </c>
       <c r="N26">
-        <v>23.083546</v>
+        <v>34.005792</v>
       </c>
       <c r="O26">
-        <v>0.2250656192673999</v>
+        <v>0.2016481661015148</v>
       </c>
       <c r="P26">
-        <v>0.1829004464319742</v>
+        <v>0.1508855102621455</v>
       </c>
       <c r="Q26">
-        <v>69.33934037276266</v>
+        <v>77.408013436752</v>
       </c>
       <c r="R26">
-        <v>416.036042236576</v>
+        <v>464.448080620512</v>
       </c>
       <c r="S26">
-        <v>0.01001350470319484</v>
+        <v>0.01180207615155302</v>
       </c>
       <c r="T26">
-        <v>0.008641565140497907</v>
+        <v>0.008960404000878261</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>6.007685333333334</v>
+        <v>4.552637</v>
       </c>
       <c r="H27">
-        <v>18.023056</v>
+        <v>13.657911</v>
       </c>
       <c r="I27">
-        <v>0.04449148979657271</v>
+        <v>0.05852806092772278</v>
       </c>
       <c r="J27">
-        <v>0.04724737040875374</v>
+        <v>0.05938545050025436</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>26.479315</v>
       </c>
       <c r="O27">
-        <v>0.1721163472386074</v>
+        <v>0.1046783502719053</v>
       </c>
       <c r="P27">
-        <v>0.20980652343071</v>
+        <v>0.1174901309508416</v>
       </c>
       <c r="Q27">
-        <v>53.02646412073778</v>
+        <v>40.18356973455167</v>
       </c>
       <c r="R27">
-        <v>477.23817708664</v>
+        <v>361.652127610965</v>
       </c>
       <c r="S27">
-        <v>0.007657712706989868</v>
+        <v>0.00612662086252758</v>
       </c>
       <c r="T27">
-        <v>0.009912806526703625</v>
+        <v>0.006977204355849607</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>6.007685333333334</v>
+        <v>4.552637</v>
       </c>
       <c r="H28">
-        <v>18.023056</v>
+        <v>13.657911</v>
       </c>
       <c r="I28">
-        <v>0.04449148979657271</v>
+        <v>0.05852806092772278</v>
       </c>
       <c r="J28">
-        <v>0.04724737040875374</v>
+        <v>0.05938545050025436</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>3.407739666666667</v>
+        <v>3.388572</v>
       </c>
       <c r="N28">
-        <v>10.223219</v>
+        <v>10.165716</v>
       </c>
       <c r="O28">
-        <v>0.06645123226565072</v>
+        <v>0.04018723219285363</v>
       </c>
       <c r="P28">
-        <v>0.0810027765695895</v>
+        <v>0.04510582332092299</v>
       </c>
       <c r="Q28">
-        <v>20.47262761525156</v>
+        <v>15.426938264364</v>
       </c>
       <c r="R28">
-        <v>184.253648537264</v>
+        <v>138.842444379276</v>
       </c>
       <c r="S28">
-        <v>0.002956514322316882</v>
+        <v>0.002352080774299879</v>
       </c>
       <c r="T28">
-        <v>0.003827168188720913</v>
+        <v>0.002678629638097891</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>6.007685333333334</v>
+        <v>4.552637</v>
       </c>
       <c r="H29">
-        <v>18.023056</v>
+        <v>13.657911</v>
       </c>
       <c r="I29">
-        <v>0.04449148979657271</v>
+        <v>0.05852806092772278</v>
       </c>
       <c r="J29">
-        <v>0.04724737040875374</v>
+        <v>0.05938545050025436</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>16.095412</v>
+        <v>10.581151</v>
       </c>
       <c r="N29">
-        <v>32.19082400000001</v>
+        <v>21.162302</v>
       </c>
       <c r="O29">
-        <v>0.3138619923597475</v>
+        <v>0.1254886046702403</v>
       </c>
       <c r="P29">
-        <v>0.2550611626399649</v>
+        <v>0.09389826108421828</v>
       </c>
       <c r="Q29">
-        <v>96.69617060635736</v>
+        <v>48.172139545187</v>
       </c>
       <c r="R29">
-        <v>580.1770236381441</v>
+        <v>289.032837271122</v>
       </c>
       <c r="S29">
-        <v>0.01396418763060569</v>
+        <v>0.007344604699874739</v>
       </c>
       <c r="T29">
-        <v>0.0120509692281378</v>
+        <v>0.005576190535676805</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>6.007685333333334</v>
+        <v>4.552637</v>
       </c>
       <c r="H30">
-        <v>18.023056</v>
+        <v>13.657911</v>
       </c>
       <c r="I30">
-        <v>0.04449148979657271</v>
+        <v>0.05852806092772278</v>
       </c>
       <c r="J30">
-        <v>0.04724737040875374</v>
+        <v>0.05938545050025436</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>8.935845</v>
+        <v>41.965716</v>
       </c>
       <c r="N30">
-        <v>26.807535</v>
+        <v>125.897148</v>
       </c>
       <c r="O30">
-        <v>0.174249787151636</v>
+        <v>0.4976981374547604</v>
       </c>
       <c r="P30">
-        <v>0.2124071457323227</v>
+        <v>0.5586123509938791</v>
       </c>
       <c r="Q30">
-        <v>53.68374494744</v>
+        <v>191.054671393092</v>
       </c>
       <c r="R30">
-        <v>483.15370452696</v>
+        <v>1719.492042537828</v>
       </c>
       <c r="S30">
-        <v>0.007752632627111978</v>
+        <v>0.02912930691256637</v>
       </c>
       <c r="T30">
-        <v>0.01003567909188119</v>
+        <v>0.03317344611877772</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>6.007685333333334</v>
+        <v>4.552637</v>
       </c>
       <c r="H31">
-        <v>18.023056</v>
+        <v>13.657911</v>
       </c>
       <c r="I31">
-        <v>0.04449148979657271</v>
+        <v>0.05852806092772278</v>
       </c>
       <c r="J31">
-        <v>0.04724737040875374</v>
+        <v>0.05938545050025436</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>2.474605</v>
+        <v>2.554843</v>
       </c>
       <c r="N31">
-        <v>7.423815</v>
+        <v>7.664529</v>
       </c>
       <c r="O31">
-        <v>0.0482550217169584</v>
+        <v>0.03029950930872554</v>
       </c>
       <c r="P31">
-        <v>0.05882194519543864</v>
+        <v>0.03400792338799259</v>
       </c>
       <c r="Q31">
-        <v>14.86664816429333</v>
+        <v>11.631272770991</v>
       </c>
       <c r="R31">
-        <v>133.79983347864</v>
+        <v>104.681454938919</v>
       </c>
       <c r="S31">
-        <v>0.002146937806353449</v>
+        <v>0.001773371526901192</v>
       </c>
       <c r="T31">
-        <v>0.002779182232812301</v>
+        <v>0.002019575850974076</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>37.929551</v>
+        <v>32.74590833333333</v>
       </c>
       <c r="H32">
-        <v>113.788653</v>
+        <v>98.237725</v>
       </c>
       <c r="I32">
-        <v>0.2808972403967036</v>
+        <v>0.4209767917070829</v>
       </c>
       <c r="J32">
-        <v>0.2982965062420128</v>
+        <v>0.4271437670991633</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>11.541773</v>
+        <v>17.002896</v>
       </c>
       <c r="N32">
-        <v>23.083546</v>
+        <v>34.005792</v>
       </c>
       <c r="O32">
-        <v>0.2250656192673999</v>
+        <v>0.2016481661015148</v>
       </c>
       <c r="P32">
-        <v>0.1829004464319742</v>
+        <v>0.1508855102621455</v>
       </c>
       <c r="Q32">
-        <v>437.7742676339229</v>
+        <v>556.7752738171999</v>
       </c>
       <c r="R32">
-        <v>2626.645605803538</v>
+        <v>3340.6516429032</v>
       </c>
       <c r="S32">
-        <v>0.0632203113603878</v>
+        <v>0.08488919801903262</v>
       </c>
       <c r="T32">
-        <v>0.05455856416076233</v>
+        <v>0.06444980525405228</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>37.929551</v>
+        <v>32.74590833333333</v>
       </c>
       <c r="H33">
-        <v>113.788653</v>
+        <v>98.237725</v>
       </c>
       <c r="I33">
-        <v>0.2808972403967036</v>
+        <v>0.4209767917070829</v>
       </c>
       <c r="J33">
-        <v>0.2982965062420128</v>
+        <v>0.4271437670991633</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>26.479315</v>
       </c>
       <c r="O33">
-        <v>0.1721163472386074</v>
+        <v>0.1046783502719053</v>
       </c>
       <c r="P33">
-        <v>0.20980652343071</v>
+        <v>0.1174901309508416</v>
       </c>
       <c r="Q33">
-        <v>334.7828429125216</v>
+        <v>289.0297405731528</v>
       </c>
       <c r="R33">
-        <v>3013.045586212695</v>
+        <v>2601.267665158375</v>
       </c>
       <c r="S33">
-        <v>0.04834700696648563</v>
+        <v>0.04406715605865694</v>
       </c>
       <c r="T33">
-        <v>0.06258455292616379</v>
+        <v>0.05018517713131649</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>37.929551</v>
+        <v>32.74590833333333</v>
       </c>
       <c r="H34">
-        <v>113.788653</v>
+        <v>98.237725</v>
       </c>
       <c r="I34">
-        <v>0.2808972403967036</v>
+        <v>0.4209767917070829</v>
       </c>
       <c r="J34">
-        <v>0.2982965062420128</v>
+        <v>0.4271437670991633</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>3.407739666666667</v>
+        <v>3.388572</v>
       </c>
       <c r="N34">
-        <v>10.223219</v>
+        <v>10.165716</v>
       </c>
       <c r="O34">
-        <v>0.06645123226565072</v>
+        <v>0.04018723219285363</v>
       </c>
       <c r="P34">
-        <v>0.0810027765695895</v>
+        <v>0.04510582332092299</v>
       </c>
       <c r="Q34">
-        <v>129.2540354815563</v>
+        <v>110.9618680929</v>
       </c>
       <c r="R34">
-        <v>1163.286319334007</v>
+        <v>998.6568128360999</v>
       </c>
       <c r="S34">
-        <v>0.01866596776438168</v>
+        <v>0.01691789207613512</v>
       </c>
       <c r="T34">
-        <v>0.02416284524661092</v>
+        <v>0.01926667129140834</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>37.929551</v>
+        <v>32.74590833333333</v>
       </c>
       <c r="H35">
-        <v>113.788653</v>
+        <v>98.237725</v>
       </c>
       <c r="I35">
-        <v>0.2808972403967036</v>
+        <v>0.4209767917070829</v>
       </c>
       <c r="J35">
-        <v>0.2982965062420128</v>
+        <v>0.4271437670991633</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>16.095412</v>
+        <v>10.581151</v>
       </c>
       <c r="N35">
-        <v>32.19082400000001</v>
+        <v>21.162302</v>
       </c>
       <c r="O35">
-        <v>0.3138619923597475</v>
+        <v>0.1254886046702403</v>
       </c>
       <c r="P35">
-        <v>0.2550611626399649</v>
+        <v>0.09389826108421828</v>
       </c>
       <c r="Q35">
-        <v>610.4917503200121</v>
+        <v>346.4894007071583</v>
       </c>
       <c r="R35">
-        <v>3662.950501920072</v>
+        <v>2078.93640424295</v>
       </c>
       <c r="S35">
-        <v>0.08816296751926436</v>
+        <v>0.0528277901898762</v>
       </c>
       <c r="T35">
-        <v>0.07608385369352734</v>
+        <v>0.04010805696357377</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>37.929551</v>
+        <v>32.74590833333333</v>
       </c>
       <c r="H36">
-        <v>113.788653</v>
+        <v>98.237725</v>
       </c>
       <c r="I36">
-        <v>0.2808972403967036</v>
+        <v>0.4209767917070829</v>
       </c>
       <c r="J36">
-        <v>0.2982965062420128</v>
+        <v>0.4271437670991633</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>8.935845</v>
+        <v>41.965716</v>
       </c>
       <c r="N36">
-        <v>26.807535</v>
+        <v>125.897148</v>
       </c>
       <c r="O36">
-        <v>0.174249787151636</v>
+        <v>0.4976981374547604</v>
       </c>
       <c r="P36">
-        <v>0.2124071457323227</v>
+        <v>0.5586123509938791</v>
       </c>
       <c r="Q36">
-        <v>338.932588655595</v>
+        <v>1374.2054892787</v>
       </c>
       <c r="R36">
-        <v>3050.393297900355</v>
+        <v>12367.8494035083</v>
       </c>
       <c r="S36">
-        <v>0.04894628435060754</v>
+        <v>0.2095193651442958</v>
       </c>
       <c r="T36">
-        <v>0.06336030947278992</v>
+        <v>0.2386077839516455</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>37.929551</v>
+        <v>32.74590833333333</v>
       </c>
       <c r="H37">
-        <v>113.788653</v>
+        <v>98.237725</v>
       </c>
       <c r="I37">
-        <v>0.2808972403967036</v>
+        <v>0.4209767917070829</v>
       </c>
       <c r="J37">
-        <v>0.2982965062420128</v>
+        <v>0.4271437670991633</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>2.474605</v>
+        <v>2.554843</v>
       </c>
       <c r="N37">
-        <v>7.423815</v>
+        <v>7.664529</v>
       </c>
       <c r="O37">
-        <v>0.0482550217169584</v>
+        <v>0.03029950930872554</v>
       </c>
       <c r="P37">
-        <v>0.05882194519543864</v>
+        <v>0.03400792338799259</v>
       </c>
       <c r="Q37">
-        <v>93.860656552355</v>
+        <v>83.66065468405833</v>
       </c>
       <c r="R37">
-        <v>844.745908971195</v>
+        <v>752.945892156525</v>
       </c>
       <c r="S37">
-        <v>0.01355470243557662</v>
+        <v>0.01275539021908617</v>
       </c>
       <c r="T37">
-        <v>0.0175463807421585</v>
+        <v>0.0145262725071669</v>
       </c>
     </row>
   </sheetData>
